--- a/data/trans_orig/P74B2S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA66CC7F-0C40-4597-B5E6-638C7FBBF5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10F381D-55E8-42EC-AA64-BB99CCD2C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7769A51E-C149-4DC1-BED2-470A8F4F290B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69DE54EF-CCF6-4834-8E51-59CEECF67599}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="473">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -94,19 +94,19 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>45,88%</t>
+    <t>56,12%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>18,09%</t>
+    <t>14,05%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>17,49%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -118,7 +118,7 @@
     <t>88,45%</t>
   </si>
   <si>
-    <t>54,12%</t>
+    <t>43,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,13 +127,13 @@
     <t>96,55%</t>
   </si>
   <si>
-    <t>81,91%</t>
+    <t>85,95%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>82,51%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,7 +145,7 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>30,96%</t>
+    <t>24,05%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -154,7 +154,7 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -163,61 +163,64 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>31,17%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -226,31 +229,31 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>25,17%</t>
+    <t>27,09%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>5,61%</t>
@@ -262,25 +265,25 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>74,01%</t>
+    <t>73,02%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -289,7 +292,7 @@
     <t>12,27%</t>
   </si>
   <si>
-    <t>34,38%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -298,10 +301,13 @@
     <t>1,72%</t>
   </si>
   <si>
+    <t>5,24%</t>
+  </si>
+  <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>27,15%</t>
+    <t>25,41%</t>
   </si>
   <si>
     <t>4,18%</t>
@@ -310,16 +316,16 @@
     <t>1,03%</t>
   </si>
   <si>
-    <t>10,29%</t>
+    <t>10,32%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -331,7 +337,7 @@
     <t>82,76%</t>
   </si>
   <si>
-    <t>60,59%</t>
+    <t>59,44%</t>
   </si>
   <si>
     <t>95,36%</t>
@@ -340,7 +346,7 @@
     <t>95,82%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>89,68%</t>
   </si>
   <si>
     <t>98,97%</t>
@@ -349,10 +355,10 @@
     <t>93,99%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -361,10 +367,10 @@
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -376,82 +382,82 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>14,69%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>2,74%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -463,70 +469,70 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,19%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>80,03%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>91,9%</t>
   </si>
   <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -544,7 +550,7 @@
     <t>37,17%</t>
   </si>
   <si>
-    <t>27,77%</t>
+    <t>26,38%</t>
   </si>
   <si>
     <t>31,8%</t>
@@ -556,7 +562,7 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>27,43%</t>
+    <t>26,59%</t>
   </si>
   <si>
     <t>68,2%</t>
@@ -571,804 +577,780 @@
     <t>88,66%</t>
   </si>
   <si>
-    <t>65,96%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -1378,76 +1360,73 @@
     <t>45,79%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>90,16%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -1456,28 +1435,28 @@
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9304BD57-D1AE-4FF1-86C4-88DBABBE9AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E496C7D3-586C-4A57-B36D-EB08B67793A0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2527,13 +2506,13 @@
         <v>1114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2548,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2557,13 +2536,13 @@
         <v>1114</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2557,13 @@
         <v>1895</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -2593,13 +2572,13 @@
         <v>9798</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -2608,13 +2587,13 @@
         <v>11693</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2650,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2665,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,10 +2659,10 @@
         <v>31435</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>27</v>
@@ -2695,13 +2674,13 @@
         <v>132418</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -2710,13 +2689,13 @@
         <v>163851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,7 +2751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2784,13 +2763,13 @@
         <v>1920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2805,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2814,13 +2793,13 @@
         <v>1920</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2814,13 @@
         <v>777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2850,13 +2829,13 @@
         <v>4008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2865,13 +2844,13 @@
         <v>4785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2907,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2922,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2916,13 @@
         <v>12948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -2952,13 +2931,13 @@
         <v>91860</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -2967,13 +2946,13 @@
         <v>104809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,7 +3008,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3041,13 +3020,13 @@
         <v>2583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3062,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3071,13 +3050,13 @@
         <v>2583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3071,13 @@
         <v>8952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3107,13 +3086,13 @@
         <v>7935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3122,13 +3101,13 @@
         <v>16887</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3122,13 @@
         <v>838</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3164,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3173,13 +3152,13 @@
         <v>838</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3173,13 @@
         <v>14687</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7">
         <v>135</v>
@@ -3209,13 +3188,13 @@
         <v>136785</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -3224,13 +3203,13 @@
         <v>151473</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3277,13 @@
         <v>6594</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3319,7 +3298,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -3328,13 +3307,13 @@
         <v>6594</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3328,13 @@
         <v>12714</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -3364,13 +3343,13 @@
         <v>28565</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3379,13 +3358,13 @@
         <v>41279</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3379,13 @@
         <v>1706</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3421,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3430,13 +3409,13 @@
         <v>1706</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3430,13 @@
         <v>84216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H32" s="7">
         <v>476</v>
@@ -3466,13 +3445,13 @@
         <v>477992</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -3481,13 +3460,13 @@
         <v>562209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,7 +3522,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3564,7 +3543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5764CF-4E9F-4790-BF5F-4888C36F5EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53C75CA-73AD-43FD-B4E4-A1D1FAF92599}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,7 +3673,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3703,13 +3682,13 @@
         <v>1055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3718,13 +3697,13 @@
         <v>1055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,7 +3718,7 @@
         <v>852</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3760,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3769,13 +3748,13 @@
         <v>852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3775,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3811,7 +3790,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3826,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3820,7 @@
         <v>1828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -3856,10 +3835,10 @@
         <v>13090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -3871,10 +3850,10 @@
         <v>14918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
@@ -3945,13 +3924,13 @@
         <v>2918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3960,13 +3939,13 @@
         <v>1044</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3975,13 +3954,13 @@
         <v>3963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3975,13 @@
         <v>2257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4011,13 +3990,13 @@
         <v>4190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4026,13 +4005,13 @@
         <v>6448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4026,13 @@
         <v>967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4068,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4077,13 +4056,13 @@
         <v>967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4077,13 @@
         <v>11484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -4283,10 +4262,10 @@
         <v>15136</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>224</v>
@@ -4447,7 +4426,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4477,10 +4456,10 @@
         <v>240</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4489,13 +4468,13 @@
         <v>10658</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4489,13 @@
         <v>1085</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4525,13 +4504,13 @@
         <v>11085</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4540,13 +4519,13 @@
         <v>12170</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4597,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4591,13 @@
         <v>5752</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -4627,13 +4606,13 @@
         <v>51929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -4642,13 +4621,13 @@
         <v>57680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4683,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4716,13 +4695,13 @@
         <v>5038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4731,13 +4710,13 @@
         <v>3013</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4746,13 +4725,13 @@
         <v>8051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4746,13 @@
         <v>5933</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4782,13 +4761,13 @@
         <v>6051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4797,13 +4776,13 @@
         <v>11985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4797,13 @@
         <v>982</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4839,7 +4818,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4848,13 +4827,13 @@
         <v>982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,13 +4848,13 @@
         <v>11032</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H27" s="7">
         <v>82</v>
@@ -4884,13 +4863,13 @@
         <v>87496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -4899,13 +4878,13 @@
         <v>98527</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4952,13 @@
         <v>18764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -4988,13 +4967,13 @@
         <v>25961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -5003,13 +4982,13 @@
         <v>44725</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5003,13 @@
         <v>14424</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -5039,13 +5018,13 @@
         <v>32166</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>307</v>
+        <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5054,13 +5033,13 @@
         <v>46590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5054,13 @@
         <v>1949</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5096,7 +5075,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5105,13 +5084,13 @@
         <v>1949</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5105,13 @@
         <v>46217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H32" s="7">
         <v>239</v>
@@ -5141,13 +5120,13 @@
         <v>257003</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -5156,13 +5135,13 @@
         <v>303220</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,7 +5197,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5239,7 +5218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B7541D-C447-48FB-B597-56B39EAAE4A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89AC22-773F-453A-87F1-7AA36F0FE85B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5256,7 +5235,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5369,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5378,13 +5357,13 @@
         <v>816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5393,13 +5372,13 @@
         <v>816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,7 +5399,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5429,13 +5408,13 @@
         <v>1703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5444,13 +5423,13 @@
         <v>1703</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5486,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5501,7 +5480,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5498,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -5531,13 +5510,13 @@
         <v>20655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5546,13 +5525,13 @@
         <v>28558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5599,13 @@
         <v>5966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5635,13 +5614,13 @@
         <v>4132</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -5650,13 +5629,13 @@
         <v>10097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5650,13 @@
         <v>2054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5686,13 +5665,13 @@
         <v>3972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5701,13 +5680,13 @@
         <v>6026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,7 +5722,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5758,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5752,13 @@
         <v>15513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -5788,13 +5767,13 @@
         <v>104393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -5803,13 +5782,13 @@
         <v>119906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5856,13 @@
         <v>21940</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5892,13 +5871,13 @@
         <v>7574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5907,13 +5886,13 @@
         <v>29514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5907,13 @@
         <v>7570</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -5943,13 +5922,13 @@
         <v>8965</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>384</v>
+        <v>238</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -5958,13 +5937,13 @@
         <v>16534</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6000,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6015,7 +5994,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6009,13 @@
         <v>21386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6045,13 +6024,13 @@
         <v>161267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -6060,13 +6039,13 @@
         <v>182652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,7 +6101,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6134,13 +6113,13 @@
         <v>10356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6149,13 +6128,13 @@
         <v>5946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6164,13 +6143,13 @@
         <v>16302</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6185,13 +6164,13 @@
         <v>3994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6200,13 +6179,13 @@
         <v>4154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6215,13 +6194,13 @@
         <v>8148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6266,13 @@
         <v>10810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>35</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -6302,13 +6281,13 @@
         <v>114257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -6317,13 +6296,13 @@
         <v>125067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6358,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6391,13 +6370,13 @@
         <v>26856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6406,13 +6385,13 @@
         <v>5141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -6421,13 +6400,13 @@
         <v>31997</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6421,13 @@
         <v>4392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6457,13 +6436,13 @@
         <v>9801</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6472,13 +6451,13 @@
         <v>14193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6514,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6529,7 +6508,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6523,13 @@
         <v>26399</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H27" s="7">
         <v>118</v>
@@ -6559,13 +6538,13 @@
         <v>136980</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M27" s="7">
         <v>146</v>
@@ -6574,13 +6553,13 @@
         <v>163379</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6648,13 +6627,13 @@
         <v>65117</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -6663,13 +6642,13 @@
         <v>23609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -6678,13 +6657,13 @@
         <v>88726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6699,13 +6678,13 @@
         <v>18010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6714,13 +6693,13 @@
         <v>28595</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6729,13 +6708,13 @@
         <v>46605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>298</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6735,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6771,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6786,7 +6765,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,13 +6780,13 @@
         <v>82010</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H32" s="7">
         <v>468</v>
@@ -6816,13 +6795,13 @@
         <v>537551</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>552</v>
@@ -6831,13 +6810,13 @@
         <v>619561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,7 +6872,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B2S1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F10F381D-55E8-42EC-AA64-BB99CCD2C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C101FFD5-3950-4316-9580-222435AC5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69DE54EF-CCF6-4834-8E51-59CEECF67599}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{524DB2F8-2F4D-4C47-8E4B-EDEED8FF1D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="475">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2007 (Tasa respuesta: 9,37%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -94,19 +94,19 @@
     <t>11,55%</t>
   </si>
   <si>
-    <t>56,12%</t>
+    <t>45,79%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>20,47%</t>
+    <t>17,37%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -118,7 +118,7 @@
     <t>88,45%</t>
   </si>
   <si>
-    <t>43,88%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -127,25 +127,25 @@
     <t>96,55%</t>
   </si>
   <si>
-    <t>85,95%</t>
+    <t>81,22%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>79,53%</t>
+    <t>82,63%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>24,05%</t>
+    <t>23,45%</t>
   </si>
   <si>
     <t>1,9%</t>
@@ -154,7 +154,7 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -163,25 +163,25 @@
     <t>6,02%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -193,34 +193,34 @@
     <t>90,11%</t>
   </si>
   <si>
-    <t>70,03%</t>
+    <t>69,81%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>17,66%</t>
+    <t>16,46%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -229,1234 +229,1240 @@
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,15%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>27,09%</t>
+    <t>21,36%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2016 (Tasa respuesta: 10,4%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2012 (Tasa respuesta: 5,59%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que su pareja percibe / respuesta 1 en 2015 (Tasa respuesta: 10,4%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
     <t>0,37%</t>
   </si>
   <si>
     <t>49,66%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
   </si>
   <si>
     <t>91,15%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>82,07%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
 </sst>
 </file>
@@ -1868,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E496C7D3-586C-4A57-B36D-EB08B67793A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA346E6-CEA6-4271-A687-A95F135B66BF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2799,7 +2805,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2820,13 @@
         <v>777</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2829,13 +2835,13 @@
         <v>4008</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2844,13 +2850,13 @@
         <v>4785</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,7 +2877,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2901,7 +2907,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2922,13 @@
         <v>12948</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -2931,13 +2937,13 @@
         <v>91860</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -2946,13 +2952,13 @@
         <v>104809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,7 +3014,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3020,13 +3026,13 @@
         <v>2583</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3041,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -3050,13 +3056,13 @@
         <v>2583</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3077,13 @@
         <v>8952</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -3086,13 +3092,13 @@
         <v>7935</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -3101,13 +3107,13 @@
         <v>16887</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3128,13 @@
         <v>838</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3143,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3152,13 +3158,13 @@
         <v>838</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3179,13 @@
         <v>14687</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H27" s="7">
         <v>135</v>
@@ -3188,13 +3194,13 @@
         <v>136785</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M27" s="7">
         <v>151</v>
@@ -3203,13 +3209,13 @@
         <v>151473</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3283,13 @@
         <v>6594</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3298,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -3307,13 +3313,13 @@
         <v>6594</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3334,13 @@
         <v>12714</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -3343,13 +3349,13 @@
         <v>28565</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3358,13 +3364,13 @@
         <v>41279</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3385,13 @@
         <v>1706</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3400,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -3409,13 +3415,13 @@
         <v>1706</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3436,13 @@
         <v>84216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H32" s="7">
         <v>476</v>
@@ -3445,13 +3451,13 @@
         <v>477992</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M32" s="7">
         <v>562</v>
@@ -3460,13 +3466,13 @@
         <v>562209</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3528,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53C75CA-73AD-43FD-B4E4-A1D1FAF92599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBC5835-CE03-4FD9-9F94-B8345073B80B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3560,7 +3566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3673,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3682,13 +3688,13 @@
         <v>1055</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3697,13 +3703,13 @@
         <v>1055</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,7 +3724,7 @@
         <v>852</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3739,7 +3745,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3748,13 +3754,13 @@
         <v>852</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3781,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3790,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3805,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3826,7 @@
         <v>1828</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -3835,10 +3841,10 @@
         <v>13090</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>27</v>
@@ -3850,10 +3856,10 @@
         <v>14918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
@@ -3924,13 +3930,13 @@
         <v>2918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3939,13 +3945,13 @@
         <v>1044</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3954,13 +3960,13 @@
         <v>3963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3981,13 @@
         <v>2257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3990,13 +3996,13 @@
         <v>4190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4005,13 +4011,13 @@
         <v>6448</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4032,13 @@
         <v>967</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4056,13 +4062,13 @@
         <v>967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4083,13 @@
         <v>11484</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
@@ -4092,13 +4098,13 @@
         <v>36569</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M12" s="7">
         <v>46</v>
@@ -4107,13 +4113,13 @@
         <v>48053</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>6502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4196,13 +4202,13 @@
         <v>14496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -4211,13 +4217,13 @@
         <v>20999</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4238,13 @@
         <v>4296</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -4247,13 +4253,13 @@
         <v>10840</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -4262,13 +4268,13 @@
         <v>15136</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4304,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4319,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4340,13 @@
         <v>16122</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4349,13 +4355,13 @@
         <v>67920</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4364,13 +4370,13 @@
         <v>84043</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4444,13 @@
         <v>4306</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4453,13 +4459,13 @@
         <v>6353</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4468,13 +4474,13 @@
         <v>10658</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4495,13 @@
         <v>1085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4504,13 +4510,13 @@
         <v>11085</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4519,13 +4525,13 @@
         <v>12170</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4576,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,10 +4600,10 @@
         <v>253</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -4606,13 +4612,13 @@
         <v>51929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -4621,13 +4627,13 @@
         <v>57680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4683,7 +4689,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4695,13 +4701,13 @@
         <v>5038</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -4710,13 +4716,13 @@
         <v>3013</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4725,13 +4731,13 @@
         <v>8051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4752,13 @@
         <v>5933</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4761,13 +4767,13 @@
         <v>6051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4776,13 +4782,13 @@
         <v>11985</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4803,13 @@
         <v>982</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4818,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4827,13 +4833,13 @@
         <v>982</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4854,13 @@
         <v>11032</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H27" s="7">
         <v>82</v>
@@ -4863,13 +4869,13 @@
         <v>87496</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -4878,13 +4884,13 @@
         <v>98527</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>18764</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -4967,13 +4973,13 @@
         <v>25961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -5018,13 +5024,13 @@
         <v>32166</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>304</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M30" s="7">
         <v>40</v>
@@ -5033,13 +5039,13 @@
         <v>46590</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5060,13 @@
         <v>1949</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5075,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5084,13 +5090,13 @@
         <v>1949</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5111,13 @@
         <v>46217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>239</v>
@@ -5120,13 +5126,13 @@
         <v>257003</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M32" s="7">
         <v>282</v>
@@ -5135,13 +5141,13 @@
         <v>303220</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,7 +5203,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5218,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89AC22-773F-453A-87F1-7AA36F0FE85B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A3294B-A549-4DF1-804A-79DB42A075B3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5235,7 +5241,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5348,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5357,13 +5363,13 @@
         <v>816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5372,13 +5378,13 @@
         <v>816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,7 +5405,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5408,13 +5414,13 @@
         <v>1703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5423,13 +5429,13 @@
         <v>1703</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5465,7 +5471,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5480,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,7 +5504,7 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>32</v>
@@ -5510,13 +5516,13 @@
         <v>20655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5525,13 +5531,13 @@
         <v>28558</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5605,13 @@
         <v>5966</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5614,13 +5620,13 @@
         <v>4132</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -5629,13 +5635,13 @@
         <v>10097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5656,13 @@
         <v>2054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5665,13 +5671,13 @@
         <v>3972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5680,13 +5686,13 @@
         <v>6026</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,7 +5713,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5722,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5737,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5758,13 @@
         <v>15513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>97</v>
@@ -5767,13 +5773,13 @@
         <v>104393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>114</v>
@@ -5782,13 +5788,13 @@
         <v>119906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5862,13 @@
         <v>21940</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5871,13 +5877,13 @@
         <v>7574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5886,13 +5892,13 @@
         <v>29514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5913,13 @@
         <v>7570</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -5922,13 +5928,13 @@
         <v>8965</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -5937,13 +5943,13 @@
         <v>16534</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5979,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5994,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6015,13 @@
         <v>21386</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6024,13 +6030,13 @@
         <v>161267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -6039,13 +6045,13 @@
         <v>182652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6119,13 @@
         <v>10356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6128,13 +6134,13 @@
         <v>5946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>398</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -6143,13 +6149,13 @@
         <v>16302</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6170,13 @@
         <v>3994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6179,13 +6185,13 @@
         <v>4154</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -6194,13 +6200,13 @@
         <v>8148</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,7 +6227,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6236,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6251,7 +6257,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6272,13 @@
         <v>10810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>98</v>
@@ -6281,13 +6287,13 @@
         <v>114257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -6296,13 +6302,13 @@
         <v>125067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,7 +6364,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6370,13 +6376,13 @@
         <v>26856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6385,13 +6391,13 @@
         <v>5141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>110</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -6400,13 +6406,13 @@
         <v>31997</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6427,13 @@
         <v>4392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6436,13 +6442,13 @@
         <v>9801</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -6451,13 +6457,13 @@
         <v>14193</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>49</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6484,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6493,7 +6499,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6508,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6529,13 @@
         <v>26399</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>439</v>
+        <v>18</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H27" s="7">
         <v>118</v>
@@ -6538,13 +6544,13 @@
         <v>136980</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M27" s="7">
         <v>146</v>
@@ -6553,13 +6559,13 @@
         <v>163379</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6633,13 @@
         <v>65117</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -6642,13 +6648,13 @@
         <v>23609</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -6657,13 +6663,13 @@
         <v>88726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6684,13 @@
         <v>18010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6693,13 +6699,13 @@
         <v>28595</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>42</v>
@@ -6708,13 +6714,13 @@
         <v>46605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6756,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -6765,7 +6771,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6786,13 @@
         <v>82010</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>468</v>
@@ -6795,13 +6801,13 @@
         <v>537551</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>552</v>
@@ -6810,13 +6816,13 @@
         <v>619561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,7 +6878,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
